--- a/Refined Program/rep2_data_analysis/Rep1_DutyRatio_and_AUC.xlsx
+++ b/Refined Program/rep2_data_analysis/Rep1_DutyRatio_and_AUC.xlsx
@@ -486,10 +486,10 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>3471.36626999989</v>
+        <v>3838.793663506989</v>
       </c>
       <c r="G2" t="n">
-        <v>3476.48836499989</v>
+        <v>3844.457907582817</v>
       </c>
     </row>
     <row r="3">
@@ -513,10 +513,10 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>3718.237066929022</v>
+        <v>3240.698776960683</v>
       </c>
       <c r="G3" t="n">
-        <v>3723.012106299096</v>
+        <v>3244.860551470487</v>
       </c>
     </row>
     <row r="4">
@@ -540,10 +540,10 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>4546.531303630279</v>
+        <v>4298.890449645307</v>
       </c>
       <c r="G4" t="n">
-        <v>4549.963267326644</v>
+        <v>4302.13548085098</v>
       </c>
     </row>
     <row r="5">
@@ -567,10 +567,10 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>4426.184125999904</v>
+        <v>4651.307404371489</v>
       </c>
       <c r="G5" t="n">
-        <v>4431.148119999904</v>
+        <v>4656.523875577874</v>
       </c>
     </row>
     <row r="6">
@@ -594,10 +594,10 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>5099.81791666656</v>
+        <v>5081.186898040413</v>
       </c>
       <c r="G6" t="n">
-        <v>5105.726354166565</v>
+        <v>5087.073750415043</v>
       </c>
     </row>
     <row r="7">
@@ -621,10 +621,10 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>3536.088343922645</v>
+        <v>3645.395091249914</v>
       </c>
       <c r="G7" t="n">
-        <v>3539.922584498488</v>
+        <v>3649.347854986108</v>
       </c>
     </row>
     <row r="8">
@@ -648,10 +648,10 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>3078.770000000173</v>
+        <v>2873.518666666828</v>
       </c>
       <c r="G8" t="n">
-        <v>3090.748750000174</v>
+        <v>2884.698833333496</v>
       </c>
     </row>
     <row r="9">
@@ -675,10 +675,10 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2662.196250000149</v>
+        <v>2400.104805265191</v>
       </c>
       <c r="G9" t="n">
-        <v>2669.739625000149</v>
+        <v>2406.905540028984</v>
       </c>
     </row>
     <row r="10">
@@ -702,10 +702,10 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1904.2476923078</v>
+        <v>2367.561208875421</v>
       </c>
       <c r="G10" t="n">
-        <v>1909.328076923184</v>
+        <v>2373.877677888428</v>
       </c>
     </row>
     <row r="11">
@@ -729,10 +729,10 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>2976.275978261035</v>
+        <v>2999.752300613666</v>
       </c>
       <c r="G11" t="n">
-        <v>2984.341576087124</v>
+        <v>3007.881518405077</v>
       </c>
     </row>
     <row r="12">
@@ -756,10 +756,10 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1227.060328988276</v>
+        <v>1354.432470024058</v>
       </c>
       <c r="G12" t="n">
-        <v>1230.342643544452</v>
+        <v>1358.055497601995</v>
       </c>
     </row>
     <row r="13">
@@ -783,10 +783,10 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1877.914271049997</v>
+        <v>2076.274270918428</v>
       </c>
       <c r="G13" t="n">
-        <v>1881.060651750254</v>
+        <v>2079.752996968478</v>
       </c>
     </row>
     <row r="14">
@@ -810,10 +810,10 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>830.8947920000454</v>
+        <v>1015.763804401034</v>
       </c>
       <c r="G14" t="n">
-        <v>834.0892980000467</v>
+        <v>1019.669068459715</v>
       </c>
     </row>
     <row r="15">
@@ -837,10 +837,10 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>939.6195050291692</v>
+        <v>957.6159940653357</v>
       </c>
       <c r="G15" t="n">
-        <v>943.8280836421918</v>
+        <v>961.9051793903969</v>
       </c>
     </row>
     <row r="16">
@@ -864,10 +864,10 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>451.9550000000245</v>
+        <v>265.0762463343253</v>
       </c>
       <c r="G16" t="n">
-        <v>452.440625000025</v>
+        <v>265.3610703812464</v>
       </c>
     </row>
     <row r="17">
@@ -891,10 +891,10 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>1855.146363636469</v>
+        <v>2840.563752784126</v>
       </c>
       <c r="G17" t="n">
-        <v>1861.680227272833</v>
+        <v>2850.56827672622</v>
       </c>
     </row>
     <row r="18">
@@ -918,10 +918,10 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>1376.455500000077</v>
+        <v>1619.359411764797</v>
       </c>
       <c r="G18" t="n">
-        <v>1383.707500000078</v>
+        <v>1627.89117647068</v>
       </c>
     </row>
     <row r="19">
@@ -945,10 +945,10 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>1046.095425237715</v>
+        <v>1198.500707018038</v>
       </c>
       <c r="G19" t="n">
-        <v>1049.261140908716</v>
+        <v>1202.127634713521</v>
       </c>
     </row>
   </sheetData>
